--- a/tests/testthat/STUDY002_TA.xlsx
+++ b/tests/testthat/STUDY002_TA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">ARM1</t>
   </si>
   <si>
+    <t xml:space="preserve">Sequence ABC</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET1</t>
   </si>
   <si>
@@ -71,16 +74,25 @@
     <t xml:space="preserve">ET3</t>
   </si>
   <si>
+    <t xml:space="preserve">WASHOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET4</t>
+  </si>
+  <si>
     <t xml:space="preserve">TREATMENT B</t>
   </si>
   <si>
-    <t xml:space="preserve">ET4</t>
+    <t xml:space="preserve">ET5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET6</t>
   </si>
   <si>
     <t xml:space="preserve">TREATMENT C</t>
   </si>
   <si>
-    <t xml:space="preserve">ET5</t>
+    <t xml:space="preserve">ET7</t>
   </si>
   <si>
     <t xml:space="preserve">FOLLOW-UP</t>
@@ -89,55 +101,55 @@
     <t xml:space="preserve">ARM2</t>
   </si>
   <si>
-    <t xml:space="preserve">ET6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT D</t>
+    <t xml:space="preserve">Sequence BCA</t>
   </si>
   <si>
     <t xml:space="preserve">ET8</t>
   </si>
   <si>
-    <t xml:space="preserve">TREATMENT E</t>
-  </si>
-  <si>
     <t xml:space="preserve">ET9</t>
   </si>
   <si>
-    <t xml:space="preserve">TREATMENT F</t>
-  </si>
-  <si>
     <t xml:space="preserve">ET10</t>
   </si>
   <si>
+    <t xml:space="preserve">ET11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET14</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARM3</t>
   </si>
   <si>
-    <t xml:space="preserve">ET11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT I</t>
+    <t xml:space="preserve">Sequence CAB</t>
   </si>
   <si>
     <t xml:space="preserve">ET15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET21</t>
   </si>
 </sst>
 </file>
@@ -519,21 +531,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -547,21 +559,21 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -575,21 +587,21 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -603,21 +615,21 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -631,21 +643,21 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -656,24 +668,24 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -684,13 +696,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
@@ -701,7 +713,7 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -712,24 +724,24 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -740,24 +752,24 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -768,24 +780,24 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -796,24 +808,24 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -824,24 +836,24 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -852,24 +864,24 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -880,24 +892,24 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -908,24 +920,192 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
